--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il1a-Il1r2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,16 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Il1a</t>
+  </si>
+  <si>
+    <t>Il1r2</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Il1a</t>
-  </si>
-  <si>
-    <t>Il1r2</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>8.915726999999999</v>
+      </c>
+      <c r="H2">
+        <v>26.747181</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.09179766666666667</v>
-      </c>
-      <c r="H2">
-        <v>0.275393</v>
-      </c>
-      <c r="I2">
-        <v>0.01443540132615123</v>
-      </c>
-      <c r="J2">
-        <v>0.01443540132615123</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.1093776666666667</v>
+        <v>0.041215</v>
       </c>
       <c r="N2">
-        <v>0.328133</v>
+        <v>0.123645</v>
       </c>
       <c r="O2">
-        <v>0.02919881906614821</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="P2">
-        <v>0.02919881906614821</v>
+        <v>0.0101827098254235</v>
       </c>
       <c r="Q2">
-        <v>0.01004061458544444</v>
+        <v>0.367461688305</v>
       </c>
       <c r="R2">
-        <v>0.090365531269</v>
+        <v>3.307155194745</v>
       </c>
       <c r="S2">
-        <v>0.0004214966714695258</v>
+        <v>0.01018270982542349</v>
       </c>
       <c r="T2">
-        <v>0.0004214966714695257</v>
+        <v>0.0101827098254235</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H3">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I3">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>2.961996</v>
       </c>
       <c r="O3">
-        <v>0.2635723480377004</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="P3">
-        <v>0.2635723480377004</v>
+        <v>0.2439334042789041</v>
       </c>
       <c r="Q3">
-        <v>0.09063477382533333</v>
+        <v>8.802782570363998</v>
       </c>
       <c r="R3">
-        <v>0.815712964428</v>
+        <v>79.22504313327599</v>
       </c>
       <c r="S3">
-        <v>0.003804772622400214</v>
+        <v>0.243933404278904</v>
       </c>
       <c r="T3">
-        <v>0.003804772622400213</v>
+        <v>0.2439334042789041</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H4">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I4">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5540906666666666</v>
+        <v>0.759735</v>
       </c>
       <c r="N4">
-        <v>1.662272</v>
+        <v>2.279205</v>
       </c>
       <c r="O4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="P4">
-        <v>0.1479167879083308</v>
+        <v>0.1877025609418445</v>
       </c>
       <c r="Q4">
-        <v>0.05086423032177777</v>
+        <v>6.773589852344999</v>
       </c>
       <c r="R4">
-        <v>0.457778072896</v>
+        <v>60.962308671105</v>
       </c>
       <c r="S4">
-        <v>0.002135238196331949</v>
+        <v>0.1877025609418444</v>
       </c>
       <c r="T4">
-        <v>0.002135238196331948</v>
+        <v>0.1877025609418445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.09179766666666667</v>
+        <v>8.915726999999999</v>
       </c>
       <c r="H5">
-        <v>0.275393</v>
+        <v>26.747181</v>
       </c>
       <c r="I5">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0.01443540132615123</v>
+        <v>1</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,276 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.095161666666666</v>
+        <v>2.259265333333333</v>
       </c>
       <c r="N5">
-        <v>6.285485</v>
+        <v>6.777796</v>
       </c>
       <c r="O5">
-        <v>0.5593120449878206</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="P5">
-        <v>0.5593120449878206</v>
+        <v>0.558181324953828</v>
       </c>
       <c r="Q5">
-        <v>0.1923309522894444</v>
+        <v>20.142992932564</v>
       </c>
       <c r="R5">
-        <v>1.730978570605</v>
+        <v>181.286936393076</v>
       </c>
       <c r="S5">
-        <v>0.008073893835949544</v>
+        <v>0.5581813249538279</v>
       </c>
       <c r="T5">
-        <v>0.008073893835949543</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H6">
-        <v>18.80222</v>
-      </c>
-      <c r="I6">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J6">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K6">
-        <v>2</v>
-      </c>
-      <c r="L6">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M6">
-        <v>0.1093776666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.328133</v>
-      </c>
-      <c r="O6">
-        <v>0.02919881906614821</v>
-      </c>
-      <c r="P6">
-        <v>0.02919881906614821</v>
-      </c>
-      <c r="Q6">
-        <v>0.6855143172511111</v>
-      </c>
-      <c r="R6">
-        <v>6.169628855260001</v>
-      </c>
-      <c r="S6">
-        <v>0.02877732239467869</v>
-      </c>
-      <c r="T6">
-        <v>0.02877732239467868</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H7">
-        <v>18.80222</v>
-      </c>
-      <c r="I7">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J7">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K7">
-        <v>3</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.987332</v>
-      </c>
-      <c r="N7">
-        <v>2.961996</v>
-      </c>
-      <c r="O7">
-        <v>0.2635723480377004</v>
-      </c>
-      <c r="P7">
-        <v>0.2635723480377004</v>
-      </c>
-      <c r="Q7">
-        <v>6.188011159013334</v>
-      </c>
-      <c r="R7">
-        <v>55.69210043112</v>
-      </c>
-      <c r="S7">
-        <v>0.2597675754153002</v>
-      </c>
-      <c r="T7">
-        <v>0.2597675754153001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H8">
-        <v>18.80222</v>
-      </c>
-      <c r="I8">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J8">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>0.5540906666666666</v>
-      </c>
-      <c r="N8">
-        <v>1.662272</v>
-      </c>
-      <c r="O8">
-        <v>0.1479167879083308</v>
-      </c>
-      <c r="P8">
-        <v>0.1479167879083308</v>
-      </c>
-      <c r="Q8">
-        <v>3.472711538204444</v>
-      </c>
-      <c r="R8">
-        <v>31.25440384384</v>
-      </c>
-      <c r="S8">
-        <v>0.1457815497119989</v>
-      </c>
-      <c r="T8">
-        <v>0.1457815497119988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>6.267406666666667</v>
-      </c>
-      <c r="H9">
-        <v>18.80222</v>
-      </c>
-      <c r="I9">
-        <v>0.9855645986738488</v>
-      </c>
-      <c r="J9">
-        <v>0.9855645986738487</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>2.095161666666666</v>
-      </c>
-      <c r="N9">
-        <v>6.285485</v>
-      </c>
-      <c r="O9">
-        <v>0.5593120449878206</v>
-      </c>
-      <c r="P9">
-        <v>0.5593120449878206</v>
-      </c>
-      <c r="Q9">
-        <v>13.13123019741111</v>
-      </c>
-      <c r="R9">
-        <v>118.1810717767</v>
-      </c>
-      <c r="S9">
-        <v>0.5512381511518711</v>
-      </c>
-      <c r="T9">
-        <v>0.551238151151871</v>
+        <v>0.558181324953828</v>
       </c>
     </row>
   </sheetData>
